--- a/Documentos/Rubrica1/ModeloLogico (1).xlsx
+++ b/Documentos/Rubrica1/ModeloLogico (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12360" tabRatio="647" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12360" tabRatio="647"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLEADOS" sheetId="30" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>check('M','F','T')</t>
   </si>
   <si>
-    <t>check('O+','A+','B+','AB+','O-','A-','B-','AB-')</t>
-  </si>
-  <si>
     <t>varchar2(3)</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>descuento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       check('O+','A+','B+','AB+','O-','A-','B-','AB-')</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -606,6 +606,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,25 +639,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,9 +647,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -952,7 +955,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -962,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -978,13 +981,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -994,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>56</v>
@@ -1090,14 +1093,14 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
@@ -1106,7 +1109,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>57</v>
@@ -1115,10 +1118,10 @@
         <v>61</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1220,12 +1223,12 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
@@ -1236,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>58</v>
@@ -1312,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>5</v>
@@ -1336,10 +1339,10 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1432,13 +1435,13 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1448,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1513,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>5</v>
@@ -1538,11 +1541,11 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1557,7 +1560,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1604,7 +1607,7 @@
     <row r="46" spans="1:8" ht="18" thickTop="1" thickBot="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
@@ -1618,10 +1621,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1640,10 +1643,10 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1716,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1736,10 +1739,10 @@
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="26"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="8"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1749,7 +1752,7 @@
     </row>
     <row r="58" spans="1:8" ht="18" thickTop="1" thickBot="1">
       <c r="A58" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>61</v>
@@ -1832,10 +1835,10 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="23"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1934,16 +1937,16 @@
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:8" ht="18" thickTop="1" thickBot="1">
       <c r="A74" s="6" t="s">
@@ -2021,7 +2024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18" thickTop="1" thickBot="1">
+    <row r="78" spans="1:8" ht="50" thickTop="1" thickBot="1">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2030,8 +2033,8 @@
       <c r="F78" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>68</v>
+      <c r="G78" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="H78" s="6"/>
     </row>
@@ -2043,19 +2046,19 @@
         <v>5</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>5</v>
@@ -2072,11 +2075,11 @@
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="23"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -2152,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>13</v>
@@ -2165,12 +2168,12 @@
     </row>
     <row r="88" spans="1:8" ht="16" thickTop="1" thickBot="1"/>
     <row r="89" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A89" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="23"/>
+      <c r="A89" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:8" ht="18" thickTop="1" thickBot="1">
       <c r="A90" s="6" t="s">
@@ -2183,7 +2186,7 @@
         <v>58</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="18" thickTop="1" thickBot="1">
@@ -2242,29 +2245,29 @@
     </row>
     <row r="96" spans="1:8" ht="16" thickTop="1" thickBot="1"/>
     <row r="97" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A97" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="23"/>
+      <c r="A97" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="22"/>
     </row>
     <row r="98" spans="1:5" ht="18" thickTop="1" thickBot="1">
       <c r="A98" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1">
@@ -2326,11 +2329,11 @@
     </row>
     <row r="104" spans="1:5" ht="16" thickTop="1" thickBot="1"/>
     <row r="105" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A105" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="23"/>
+      <c r="A105" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" s="25"/>
+      <c r="C105" s="22"/>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="18" thickTop="1" thickBot="1">
@@ -2338,10 +2341,10 @@
         <v>1</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="18" thickTop="1" thickBot="1">
@@ -2391,10 +2394,10 @@
       <c r="C112" s="13"/>
     </row>
     <row r="113" spans="1:2" ht="18" thickTop="1" thickBot="1">
-      <c r="A113" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B113" s="23"/>
+      <c r="A113" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="22"/>
     </row>
     <row r="114" spans="1:2" ht="18" thickTop="1" thickBot="1">
       <c r="A114" s="7" t="s">
@@ -2431,15 +2434,15 @@
         <v>5</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16" thickTop="1" thickBot="1"/>
     <row r="121" spans="1:2" ht="18" thickTop="1" thickBot="1">
-      <c r="A121" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B121" s="23"/>
+      <c r="A121" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="22"/>
     </row>
     <row r="122" spans="1:2" ht="18" thickTop="1" thickBot="1">
       <c r="A122" s="6" t="s">
@@ -2476,15 +2479,15 @@
         <v>5</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" thickTop="1" thickBot="1"/>
     <row r="129" spans="1:2" ht="18" thickTop="1" thickBot="1">
-      <c r="A129" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B129" s="23"/>
+      <c r="A129" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B129" s="22"/>
     </row>
     <row r="130" spans="1:2" ht="18" thickTop="1" thickBot="1">
       <c r="A130" s="6" t="s">
@@ -2545,14 +2548,21 @@
       <c r="F146" s="15"/>
     </row>
     <row r="155" spans="1:6" ht="16">
-      <c r="A155" s="28"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
       <c r="D155" s="16"/>
       <c r="E155" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A155:C155"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A129:B129"/>
@@ -2564,13 +2574,6 @@
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
@@ -2602,11 +2605,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2617,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>37</v>
@@ -2679,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2696,14 +2699,14 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="18" thickTop="1" thickBot="1">
@@ -2711,10 +2714,10 @@
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>28</v>
@@ -2814,11 +2817,11 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2888,10 +2891,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2908,11 +2911,11 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3010,10 +3013,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="27"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3080,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3098,11 +3101,11 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3174,10 +3177,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -3194,12 +3197,12 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:15" ht="18" thickTop="1" thickBot="1">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3274,10 +3277,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>5</v>
@@ -3296,11 +3299,11 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:15" ht="18" thickTop="1" thickBot="1">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -3380,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>5</v>
@@ -3416,17 +3419,17 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" ht="18" thickTop="1" thickBot="1">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3448,19 +3451,19 @@
         <v>7</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3534,10 +3537,10 @@
         <v>54</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3571,10 +3574,10 @@
         <v>13</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>5</v>
@@ -3609,10 +3612,10 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15" ht="18" thickTop="1" thickBot="1">
-      <c r="A73" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" s="29"/>
+      <c r="A73" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="31"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3673,15 +3676,15 @@
         <v>5</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="16" thickTop="1" thickBot="1"/>
     <row r="81" spans="1:2" ht="18" thickTop="1" thickBot="1">
-      <c r="A81" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="29"/>
+      <c r="A81" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="31"/>
     </row>
     <row r="82" spans="1:2" ht="18" thickTop="1" thickBot="1">
       <c r="A82" s="18" t="s">
@@ -3718,23 +3721,23 @@
         <v>5</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A57:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -3750,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3763,10 +3766,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="18" thickTop="1" thickBot="1">
@@ -3809,7 +3812,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -3819,10 +3822,10 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="18" thickTop="1" thickBot="1">
@@ -3875,25 +3878,25 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="18" thickTop="1" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" thickTop="1" thickBot="1">
@@ -3952,10 +3955,10 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="38.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="18" thickTop="1" thickBot="1">
@@ -3963,7 +3966,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -3998,7 +4001,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -4008,10 +4011,10 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="27"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="18" thickTop="1" thickBot="1">
@@ -4054,7 +4057,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2"/>
     </row>
